--- a/data/mpilot_accidents_dataset_preprocessed.xlsx
+++ b/data/mpilot_accidents_dataset_preprocessed.xlsx
@@ -161,7 +161,7 @@
     <t>(1e+05,5e+05]</t>
   </si>
   <si>
-    <t>Polot/Combination ladder</t>
+    <t>Pilot/Combination ladder</t>
   </si>
   <si>
     <t>Boat Navigation</t>
